--- a/EL/estimated_5genes_weakILS_EL_Phylonet5_FNRATE_PHYLONET.xlsx
+++ b/EL/estimated_5genes_weakILS_EL_Phylonet5_FNRATE_PHYLONET.xlsx
@@ -25,7 +25,7 @@
     <t>TAXON</t>
   </si>
   <si>
-    <t>MODEL_CONDITION</t>
+    <t>MODELCONDITION</t>
   </si>
   <si>
     <t>GENE</t>
@@ -392,206 +392,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.125</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0.25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>19</v>
-      </c>
       <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
         <v>0.375</v>
       </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>19</v>
       </c>
     </row>
